--- a/api-server/public/bacterium_template.xlsx
+++ b/api-server/public/bacterium_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Plasmid Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,7 +34,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Description or Comment</t>
+    <t>Date
+(DD/MM/YYYY)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -43,21 +44,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bacterial markers
+    <t>Description or Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bacterial Markers
 (semicolon-seperated)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>plate barcode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tube barcode or well ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date
-(DD/MM/YYYY)</t>
+    <t>Plate Barcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tube Barcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Well ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -155,7 +159,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>52388</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
@@ -219,16 +223,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:I1048576" totalsRowShown="0" headerRowDxfId="1" tableBorderDxfId="0">
+  <tableColumns count="9">
     <tableColumn id="1" name="Plasmid Name"/>
     <tableColumn id="2" name="Other Names_x000a_(semicolon-seperated)"/>
     <tableColumn id="3" name="Description or Comment"/>
     <tableColumn id="4" name="Date_x000a_(DD/MM/YYYY)"/>
     <tableColumn id="5" name="Host Strain"/>
-    <tableColumn id="6" name="Bacterial markers_x000a_(semicolon-seperated)"/>
-    <tableColumn id="7" name="plate barcode"/>
-    <tableColumn id="8" name="tube barcode or well ID"/>
+    <tableColumn id="6" name="Bacterial Markers_x000a_(semicolon-seperated)"/>
+    <tableColumn id="7" name="Plate Barcode"/>
+    <tableColumn id="8" name="Well ID"/>
+    <tableColumn id="9" name="Tube Barcode"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -497,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -512,13 +517,14 @@
     <col min="5" max="5" width="11.73046875" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.19921875" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="23.46484375" customWidth="1"/>
-    <col min="10" max="10" width="18.9296875" customWidth="1"/>
-    <col min="11" max="11" width="23.46484375" customWidth="1"/>
+    <col min="8" max="8" width="11.53125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.19921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.46484375" customWidth="1"/>
+    <col min="11" max="11" width="18.9296875" customWidth="1"/>
+    <col min="12" max="12" width="23.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,22 +532,25 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/api-server/public/bacterium_template.xlsx
+++ b/api-server/public/bacterium_template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10988"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20520" windowHeight="10990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,18 +69,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -504,27 +504,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="14.53125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="28.53125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.73046875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.53125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="22.19921875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.46484375" customWidth="1"/>
-    <col min="11" max="11" width="18.9296875" customWidth="1"/>
-    <col min="12" max="12" width="23.46484375" customWidth="1"/>
+    <col min="1" max="1" width="14.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1796875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" customWidth="1"/>
+    <col min="11" max="11" width="18.90625" customWidth="1"/>
+    <col min="12" max="12" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="49.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="49.9" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
